--- a/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,16 +1058,16 @@
         <v>22</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>100</v>

--- a/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddellanna\surfdrive\PostDoc\Notes\NormsSAR\NormativeBDISAR\data\fuzzy_rules\social_interpretation3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddellanna\surfdrive\PostDoc\Notes\NormsSAR\NOSAR\data\fuzzy_rules\social_interpretation3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>55</v>

--- a/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Term</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>ehpc</t>
+  </si>
+  <si>
+    <t>low_speed</t>
+  </si>
+  <si>
+    <t>mid_speed</t>
+  </si>
+  <si>
+    <t>high_speed</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F32">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,16 +1067,16 @@
         <v>22</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>80</v>
       </c>
       <c r="F33">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1078,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1182,6 +1191,66 @@
       </c>
       <c r="E39">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>150</v>
+      </c>
+      <c r="E42">
+        <v>150</v>
+      </c>
+      <c r="F42">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Term</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>high_speed</t>
+  </si>
+  <si>
+    <t>low_tone</t>
+  </si>
+  <si>
+    <t>mid_tone</t>
+  </si>
+  <si>
+    <t>high_tone</t>
   </si>
 </sst>
 </file>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,13 +1253,73 @@
         <v>100</v>
       </c>
       <c r="D42">
+        <v>125</v>
+      </c>
+      <c r="E42">
+        <v>125</v>
+      </c>
+      <c r="F42">
         <v>150</v>
       </c>
-      <c r="E42">
-        <v>150</v>
-      </c>
-      <c r="F42">
-        <v>200</v>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>90</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>120</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+      <c r="F45">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/fuzzy_sets_multiple_ref.xlsx
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,16 +1056,16 @@
         <v>22</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F32">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,16 +1076,16 @@
         <v>22</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F33">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1230,16 +1230,16 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41">
         <v>100</v>
-      </c>
-      <c r="E41">
-        <v>100</v>
-      </c>
-      <c r="F41">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,16 +1250,16 @@
         <v>22</v>
       </c>
       <c r="C42">
+        <v>80</v>
+      </c>
+      <c r="D42">
         <v>100</v>
       </c>
-      <c r="D42">
-        <v>125</v>
-      </c>
       <c r="E42">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <v>90</v>
